--- a/books.xlsx
+++ b/books.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayaan\OneDrive\Desktop\nodeJS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayaan\OneDrive\Desktop\Pirates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C26BF3-57B3-4D44-84AF-B2009C88EC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63796065-2B34-4AC0-BD45-CF93A469381D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>No</t>
   </si>
   <si>
     <t>ISBN</t>
-  </si>
-  <si>
-    <t>Site</t>
   </si>
   <si>
     <t>Found</t>
@@ -338,10 +335,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J1000"/>
+  <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -351,12 +348,12 @@
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -364,10 +361,10 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -377,105 +374,102 @@
         <v>6</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1">
         <v>9780062641540</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
         <v>9781612680019</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1">
         <v>9781786330895</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
         <v>9781847941831</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1">
         <v>-789839229</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1">
         <v>9780753555194</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
